--- a/target/test-classes/testdata/Suite.xlsx
+++ b/target/test-classes/testdata/Suite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish_Katepallewar\eclipse-workspace\TestDataProject\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish_Katepallewar\eclipse-workspace\DataDrivenGrid\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45238E6A-460F-48FE-BEAE-9EB44BEE43B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24EA721-6C3C-48CC-A75E-66CAE025E8B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="735" windowWidth="20820" windowHeight="11835" xr2:uid="{C7374F6E-6F6E-499E-AB1B-F4A59F8D2804}"/>
+    <workbookView minimized="1" xWindow="1380" yWindow="390" windowWidth="20865" windowHeight="11835" xr2:uid="{C7374F6E-6F6E-499E-AB1B-F4A59F8D2804}"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
